--- a/biology/Botanique/Rose_de_Rennes/Rose_de_Rennes.xlsx
+++ b/biology/Botanique/Rose_de_Rennes/Rose_de_Rennes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'Rose de Rennes' est un cultivar de rosier obtenu en 1995 par le rosiériste français Michel Adam. Il célèbre la ville de Rennes, en Bretagne.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier au feuillage vigoureux et vert foncé[1] porte des bouquets de fleurs d'un rose tendre[2] aux nuances de parme[3]. Son buisson érigé s'élève de 80 cm à 90 cm, voire à plus d'un mètre. Il est remontant jusqu'en novembre et très florifère[4]. Ses fleurs sont délicieusement parfumées.
-Il est parfait pour les fleurs à couper et pour un massif dans le jardin, ou en isolé[3]. Il résiste aux hivers à -18°[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier au feuillage vigoureux et vert foncé porte des bouquets de fleurs d'un rose tendre aux nuances de parme. Son buisson érigé s'élève de 80 cm à 90 cm, voire à plus d'un mètre. Il est remontant jusqu'en novembre et très florifère. Ses fleurs sont délicieusement parfumées.
+Il est parfait pour les fleurs à couper et pour un massif dans le jardin, ou en isolé. Il résiste aux hivers à -18°.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bagatelle, certificat de Mérite 1993
 AJJH, Prix de la Rose 1995</t>
